--- a/data/Wessex Company DataSet.xlsx
+++ b/data/Wessex Company DataSet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azmic\source\repos\NewRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C3687-1D26-41E5-8327-AAE02742BC99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583D5FFE-CCE4-4808-A9C8-24BBE7FA5FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13152" yWindow="3600" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11364" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContosoCoffee" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ContosoCoffee!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ContosoCoffee!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,32 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Avon</t>
   </si>
   <si>
-    <t>Causewayhead</t>
-  </si>
-  <si>
-    <t>Penzance</t>
-  </si>
-  <si>
-    <t>Cornwall</t>
-  </si>
-  <si>
-    <t>TR182</t>
-  </si>
-  <si>
     <t>Closes</t>
   </si>
   <si>
@@ -96,9 +75,6 @@
     <t>PostCode</t>
   </si>
   <si>
-    <t>(0161) 715 461</t>
-  </si>
-  <si>
     <t>GB</t>
   </si>
   <si>
@@ -121,6 +97,96 @@
   </si>
   <si>
     <t>BA2 7WW</t>
+  </si>
+  <si>
+    <t>Lymington</t>
+  </si>
+  <si>
+    <t>SO41 9ZG</t>
+  </si>
+  <si>
+    <t>Hampshire</t>
+  </si>
+  <si>
+    <t>​GU32 1HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Forest National Park Authority
+Lymington Town Hall
+Avenue Road
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sustainability Centre 
+​Droxford Road,
+East Meon
+</t>
+  </si>
+  <si>
+    <t>Hants</t>
+  </si>
+  <si>
+    <t>The Guildhall, City Offices, Colebrook St</t>
+  </si>
+  <si>
+    <t>Winchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SO23 9LJ</t>
+  </si>
+  <si>
+    <t>5 Brixeys Lane</t>
+  </si>
+  <si>
+    <t>Wareham</t>
+  </si>
+  <si>
+    <t>BH20 4HL</t>
+  </si>
+  <si>
+    <t>Newhouse Farm, Church Lane</t>
+  </si>
+  <si>
+    <t>East Boldre</t>
+  </si>
+  <si>
+    <t>SO42 7WS</t>
+  </si>
+  <si>
+    <t>Basingstoke</t>
+  </si>
+  <si>
+    <t>Berkshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hampshire Renewable Energy Co-operative
+The Innovation Centre
+Basing View
+</t>
+  </si>
+  <si>
+    <t>RG21 4HG</t>
+  </si>
+  <si>
+    <t>The Volunteer Centre, The Coach House, Acland Road</t>
+  </si>
+  <si>
+    <t>Monkton Wyld Court, nr. Charmouth</t>
+  </si>
+  <si>
+    <t>Bridport</t>
+  </si>
+  <si>
+    <t>DT6 6DQ</t>
+  </si>
+  <si>
+    <t>RG6 1WG</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Thames Valley Park</t>
   </si>
 </sst>
 </file>
@@ -604,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,6 +691,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,15 +1051,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="5" customWidth="1"/>
     <col min="2" max="3" width="21.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="5" bestFit="1" customWidth="1"/>
@@ -1007,134 +1076,300 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5">
+        <v>50.71414</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-2.4352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5">
+        <v>51.365668999999997</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-2.3207300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5">
-        <v>50.119819999999997</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-5.5386699999999998</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5">
+        <v>50.760469999999998</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-1.546359</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5">
-        <v>50.71414</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-2.4352</v>
+      <c r="G5" s="5">
+        <v>50.967308000000003</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-1.0375490000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5">
-        <v>51.365668999999997</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-2.3207300000000002</v>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5">
+        <v>51.061</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-1.311372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
+        <v>50.688594000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-2.109531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5">
+        <v>50.800275999999997</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-1.468766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="5">
+        <v>51.267892000000003</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-1.0774969999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>50.714495999999997</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-2.4349820000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5">
+        <v>50.762934000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-2.9404029999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5">
+        <v>51.461224000000001</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-0.92600499999999997</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2" xr:uid="{2ABCDDA3-D1E3-4D09-8BF0-F3D591DB5695}"/>
+  <autoFilter ref="A1:M1" xr:uid="{2ABCDDA3-D1E3-4D09-8BF0-F3D591DB5695}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Wessex Company DataSet.xlsx
+++ b/data/Wessex Company DataSet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azmic\source\repos\NewRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583D5FFE-CCE4-4808-A9C8-24BBE7FA5FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E054DD00-B144-46FE-928F-1A71D9A398BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11364" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10308" yWindow="4416" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ContosoCoffee" sheetId="1" r:id="rId1"/>
+    <sheet name="Wessex" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ContosoCoffee!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wessex!$B$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,23 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>Avon</t>
   </si>
   <si>
-    <t>Closes</t>
-  </si>
-  <si>
-    <t>Opens</t>
-  </si>
-  <si>
-    <t>IsWheelchairAccessible</t>
-  </si>
-  <si>
-    <t>IsWiFiHotSpot</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -63,13 +51,7 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Municipality</t>
-  </si>
-  <si>
-    <t>AdminDivision</t>
   </si>
   <si>
     <t>PostCode</t>
@@ -187,13 +169,235 @@
   </si>
   <si>
     <t>Thames Valley Park</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Friends of the Earth</t>
+  </si>
+  <si>
+    <t>Wessex Water</t>
+  </si>
+  <si>
+    <t>New Forest National Park Authority</t>
+  </si>
+  <si>
+    <t>The Sustainability Centre</t>
+  </si>
+  <si>
+    <t>Hampshire Renewable Energy Co-operative</t>
+  </si>
+  <si>
+    <t>Winchester City Council Green Week</t>
+  </si>
+  <si>
+    <t>Huff and Puff Contruction Limited</t>
+  </si>
+  <si>
+    <t>Linking Environment and Farming (LEAF)</t>
+  </si>
+  <si>
+    <t>Sustainable Dorset</t>
+  </si>
+  <si>
+    <t>Land Base</t>
+  </si>
+  <si>
+    <t>Microsoft UK</t>
+  </si>
+  <si>
+    <t>Legal Status</t>
+  </si>
+  <si>
+    <t>Charity</t>
+  </si>
+  <si>
+    <t>Private Company</t>
+  </si>
+  <si>
+    <t>Local Authority</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Non-Profit Organisation</t>
+  </si>
+  <si>
+    <t>Sector Focus</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>National Park</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Nature &amp; Wildlife</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spread awarness of issues such as sustaibility, climate chane and campaigning to make a difference. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protecting and maintaining the water suply systems and encouraging more people to be less wastefull with their water. </t>
+  </si>
+  <si>
+    <t>Enducate and inform children about sustainability and what they can do, providing a practical hands on experience.</t>
+  </si>
+  <si>
+    <t>Encourage people from Winchester to think more about what they are doing to be sustainable and suggest ideas of things they could do better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To protect the New Forest national park. </t>
+  </si>
+  <si>
+    <t>Using traditional bailing techniques in construction.</t>
+  </si>
+  <si>
+    <t>Aims to educate farmers to help them ensure that they are being sustaibable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims to create renewable energy sources across Hampshire. </t>
+  </si>
+  <si>
+    <t>Aims to promote sustainbility projects in the Dorest area.</t>
+  </si>
+  <si>
+    <t>Blend the line between rural and urban living and to educate people on ways in which they can sustaibiliy farm and live.</t>
+  </si>
+  <si>
+    <t>Aims to become Carbon 0 by 2025 and Carbon negative by 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaining on current issues that they feel should be addressed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encouraging customers to be more sustaibable with their water, upgrading systems in places such as sweage treatments, working with the local councils and environment agencies. </t>
+  </si>
+  <si>
+    <t>To clear the areas where there are buildups of vegetation, to reintroduce animals back into the habitats</t>
+  </si>
+  <si>
+    <t>Sustainability projects, teaching activites and lessons put together for school children, eco accommodation (campsites, yurts, sustaibable living), bee keeping courses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A week long festival held in the city centre which aims to encourage people to share how they are being more sustainable in a groups effort to decrease carbon emmisions throughout Winchester and spread awarness of the problems. </t>
+  </si>
+  <si>
+    <t>They costruct buildings using thatched and bail method, as sustainable building materials that can be easily replaced as oposed to hard building materials that are harder to get rid of and can end up in landfill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with local farmers, scientists and local consumers to ensure help them to sustainabily produce food and live stock that is nutritional. </t>
+  </si>
+  <si>
+    <t>To impliment sustainable energy farms such as turbine and solar power farms across Hampshire to increase the amount of renewable energy in the area.</t>
+  </si>
+  <si>
+    <t>Education courses for farmers and landowners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encouraging employees to use public transport and ciclying to lower the carbon emission. </t>
+  </si>
+  <si>
+    <t>Current Activities</t>
+  </si>
+  <si>
+    <t>Past Activities</t>
+  </si>
+  <si>
+    <t>Helping out at public stalls, lobbying decision makers, organising demonstrations, taking part in practical actions like litter-picking or wildflower planting.</t>
+  </si>
+  <si>
+    <t>Reducing leakage and encouraging sustainable resposible use of the water. Working on new sewage treatment to reduce the amount of blockages and polutants in the system. Generating more renewable electricity and gas from digested sewage and food waste and have increased solar and hydro electricity generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selective thinning of the forests, clearing outbreaks of rhododendron, working with volunteers to copice the land. </t>
+  </si>
+  <si>
+    <t>Current projects include compost toilets, solar showers, woodland halls, crafting from recycling, wetland eco treatment systems, forest gardening and sustainable food produce.</t>
+  </si>
+  <si>
+    <t>The key ideas of the 2020 green week were to reach out the children in schools, families and local buisness to inspire them to step up and take more responsibility in being sustainable by runing competitions and creative projects such as letters of longing and images of hope.</t>
+  </si>
+  <si>
+    <t>Projects include working on homes, extensions, garden rooms and community buildings using sustaiblable marerials such as straw bale, cob, timber, lime, clay, hemp and wool which have a lesser effect on the environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding and implementing innovative solutions to sustainability. Educating farmers on the best ways to ensure that they food they are producing is sustainable and nutritious. Offering new ways for them to grow their products more sustainably. Provide them with the nessecary tools to help them manage the soil, conserve energy, protect their crops, and enhance natural habitats. </t>
+  </si>
+  <si>
+    <t>Current acilites include a range of different things such as a sustainable campsite with projects such as renewable energy, water and facilities. They also run lots of volunteering acitiveies for epople to get involved with in their local area as well as supporting many other sustainable projects accross Dorset.</t>
+  </si>
+  <si>
+    <t>Volunteering, running sustainable campsites, creating renewable energy sources and sustainable food farms.</t>
+  </si>
+  <si>
+    <t>Offering courses for landowners with limited skills and knowledge of sustainable living to educate them on how they can change for better.</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.wessexwater.co.uk/corporate/sustainability/our-purpose-and-values/environment</t>
+  </si>
+  <si>
+    <t>https://www.newforestnpa.gov.uk/conservation/landscape-partnership/projects/working-woodlands/</t>
+  </si>
+  <si>
+    <t>https://www.sustainability-centre.org/projects.html</t>
+  </si>
+  <si>
+    <t>https://www.winchester.gov.uk/climate-change-and-energy/climate-emergency-what-you-can-do-to-help/green-week-2020-doing-more-together</t>
+  </si>
+  <si>
+    <t>https://leafuk.org/farming/leaf-demonstration-farms</t>
+  </si>
+  <si>
+    <t>http://hampshire-energy.coop/projects-2/hrec-projects/bcwf/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current projects in process include, Bullingtons cross wind turbine farm to suply sufficient power to supply 13000 homes, and also Bishop walthams solar farm which is a 64 acer solar pannel farm which will contribe a large amount of energy to the local area. </t>
+  </si>
+  <si>
+    <t>https://friendsoftheearth.uk/groups/eastdorset</t>
+  </si>
+  <si>
+    <t>https://www.huffpuff.me/</t>
+  </si>
+  <si>
+    <t>https://www.sustainabledorset.org/</t>
+  </si>
+  <si>
+    <t>https://www.sustainabledorset.org/item/landbase/</t>
+  </si>
+  <si>
+    <t>https://news.microsoft.com/2020/01/16/microsoft-announces-it-will-be-carbon-negative-by-2030/#:~:text=REDMOND,%20Wash.%20%E2%80%94%20Jan.%2016,%202020%20%E2%80%94%20Microsoft,electrical%20consumption%20since%20it%20was%20founded%20in%201975.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +532,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -626,7 +838,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -669,8 +881,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,8 +909,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -731,6 +962,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1051,326 +1283,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="21.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="38.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="21.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="5">
+        <v>50.71414</v>
+      </c>
+      <c r="I2" s="5">
+        <v>-2.4352</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>51.365668999999997</v>
+      </c>
+      <c r="I3" s="5">
+        <v>-2.3207300000000002</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5">
+        <v>50.760469999999998</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-1.546359</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>50.967308000000003</v>
+      </c>
+      <c r="I5" s="5">
+        <v>-1.0375490000000001</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5">
+        <v>51.061</v>
+      </c>
+      <c r="I6" s="5">
+        <v>-1.311372</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5">
+        <v>50.688594000000002</v>
+      </c>
+      <c r="I7" s="5">
+        <v>-2.109531</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5">
+        <v>50.800275999999997</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-1.468766</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5">
+        <v>51.267892000000003</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-1.0774969999999999</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5">
+        <v>50.714495999999997</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-2.4349820000000002</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5">
-        <v>50.71414</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-2.4352</v>
+    <row r="11" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="5">
+        <v>50.762934000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-2.9404029999999999</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5">
-        <v>51.365668999999997</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-2.3207300000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5">
-        <v>50.760469999999998</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-1.546359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5">
-        <v>50.967308000000003</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-1.0375490000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5">
-        <v>51.061</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-1.311372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="12" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="5">
-        <v>50.688594000000002</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-2.109531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="5">
-        <v>50.800275999999997</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-1.468766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="E12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="5">
-        <v>51.267892000000003</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-1.0774969999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5">
-        <v>50.714495999999997</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-2.4349820000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="5">
-        <v>50.762934000000001</v>
-      </c>
-      <c r="H11" s="5">
-        <v>-2.9404029999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>51.461224000000001</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>-0.92600499999999997</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{2ABCDDA3-D1E3-4D09-8BF0-F3D591DB5695}"/>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{E30629D8-E4FD-4F2E-A0A1-4BE4CB950F5D}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{B223456B-7F1F-403D-8405-84A23CBA9A26}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{EC226DE7-6D0B-4E3B-B856-791BDF4EEC81}"/>
+    <hyperlink ref="N6" r:id="rId4" xr:uid="{46ED2B1A-9C11-4E38-A50D-437029C1B292}"/>
+    <hyperlink ref="N8" r:id="rId5" xr:uid="{9ADFBFF1-BBD4-4BDF-9B91-60DD72EBB252}"/>
+    <hyperlink ref="N9" r:id="rId6" xr:uid="{08645742-CBA6-415A-91B3-1FD1D4918713}"/>
+    <hyperlink ref="N7" r:id="rId7" xr:uid="{66029BF8-4985-4D91-9C65-60A3EA37F199}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{4F972E08-3236-465D-9C58-FA0EF597B1ED}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{D4A3F066-B8E2-4455-8F8F-CC6983569494}"/>
+    <hyperlink ref="N12" r:id="rId10" location=":~:text=REDMOND,%20Wash.%20%E2%80%94%20Jan.%2016,%202020%20%E2%80%94%20Microsoft,electrical%20consumption%20since%20it%20was%20founded%20in%201975." xr:uid="{6FDC44D9-5CF5-4B5C-9CDF-657DCB1C60C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>